--- a/Code/Results/Cases/Case_1_235/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_1_235/res_line/pl_mw.xlsx
@@ -421,25 +421,25 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.2690186239664456</v>
+        <v>0.1423581687604241</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0.02181612175213132</v>
+        <v>0.02383153491422441</v>
       </c>
       <c r="E2">
-        <v>0.2625401458658985</v>
+        <v>0.1418975379009098</v>
       </c>
       <c r="F2">
-        <v>1.09834251590884</v>
+        <v>1.001026938071632</v>
       </c>
       <c r="G2">
-        <v>1.055310050511025</v>
+        <v>0.8641787305874686</v>
       </c>
       <c r="H2">
-        <v>0.6422648453154807</v>
+        <v>0.8706292266536622</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -448,13 +448,13 @@
         <v>0</v>
       </c>
       <c r="K2">
-        <v>1.899011931365607</v>
+        <v>0.5573233552341037</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
       <c r="M2">
-        <v>0.778304046299084</v>
+        <v>0.2719776128062676</v>
       </c>
       <c r="N2">
         <v>0</v>
@@ -468,25 +468,25 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.2349386387172672</v>
+        <v>0.1329743783578579</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>0.02228248036737668</v>
+        <v>0.02378178700569933</v>
       </c>
       <c r="E3">
-        <v>0.2295359043152274</v>
+        <v>0.1339829978956288</v>
       </c>
       <c r="F3">
-        <v>0.9982101627027049</v>
+        <v>0.9812616942354708</v>
       </c>
       <c r="G3">
-        <v>0.9570555893642023</v>
+        <v>0.8438887487805147</v>
       </c>
       <c r="H3">
-        <v>0.6042289407651538</v>
+        <v>0.866345540138056</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -495,13 +495,13 @@
         <v>0</v>
       </c>
       <c r="K3">
-        <v>1.656175315102615</v>
+        <v>0.4857134367956064</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="M3">
-        <v>0.6715668518368147</v>
+        <v>0.2428724109972933</v>
       </c>
       <c r="N3">
         <v>0</v>
@@ -515,25 +515,25 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.2142215457730146</v>
+        <v>0.1272856977271033</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>0.02257189707424168</v>
+        <v>0.02375095444888053</v>
       </c>
       <c r="E4">
-        <v>0.2097945892213033</v>
+        <v>0.1292268806890888</v>
       </c>
       <c r="F4">
-        <v>0.9389584463616671</v>
+        <v>0.9697991521135236</v>
       </c>
       <c r="G4">
-        <v>0.8990510299151993</v>
+        <v>0.8320584939190212</v>
       </c>
       <c r="H4">
-        <v>0.5821643098553153</v>
+        <v>0.8641968803054851</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -542,13 +542,13 @@
         <v>0</v>
       </c>
       <c r="K4">
-        <v>1.507835883809946</v>
+        <v>0.44168322027042</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
       <c r="M4">
-        <v>0.6068164621609284</v>
+        <v>0.2250965958248798</v>
       </c>
       <c r="N4">
         <v>0</v>
@@ -562,25 +562,25 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.2058259193210858</v>
+        <v>0.1249859700120908</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>0.02269056949894477</v>
+        <v>0.02373832529260866</v>
       </c>
       <c r="E5">
-        <v>0.2018665980795902</v>
+        <v>0.1273144455062223</v>
       </c>
       <c r="F5">
-        <v>0.915325742511186</v>
+        <v>0.9652967194621311</v>
       </c>
       <c r="G5">
-        <v>0.8759467843656381</v>
+        <v>0.8273945898377093</v>
       </c>
       <c r="H5">
-        <v>0.57347348430892</v>
+        <v>0.8634420887254919</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -589,13 +589,13 @@
         <v>0</v>
       </c>
       <c r="K5">
-        <v>1.447530359225027</v>
+        <v>0.4237251842724845</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
       <c r="M5">
-        <v>0.5805977629187566</v>
+        <v>0.2178763495970912</v>
       </c>
       <c r="N5">
         <v>0</v>
@@ -609,25 +609,25 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.2044344990897002</v>
+        <v>0.1246052195724161</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.02271031839581639</v>
+        <v>0.02373622455530189</v>
       </c>
       <c r="E6">
-        <v>0.2005567992003137</v>
+        <v>0.126998432139267</v>
       </c>
       <c r="F6">
-        <v>0.9114311865391187</v>
+        <v>0.964559259779179</v>
       </c>
       <c r="G6">
-        <v>0.872141104967497</v>
+        <v>0.8266296105515352</v>
       </c>
       <c r="H6">
-        <v>0.5720478815982233</v>
+        <v>0.8633240442282215</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -636,13 +636,13 @@
         <v>0</v>
       </c>
       <c r="K6">
-        <v>1.437524037419593</v>
+        <v>0.4207423408903423</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
       <c r="M6">
-        <v>0.5762534503376173</v>
+        <v>0.2166788459169453</v>
       </c>
       <c r="N6">
         <v>0</v>
@@ -656,25 +656,25 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.2141081372379148</v>
+        <v>0.1272546079360524</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.02257349460447422</v>
+        <v>0.02375078437946243</v>
       </c>
       <c r="E7">
-        <v>0.2096872156677989</v>
+        <v>0.1292009851570626</v>
       </c>
       <c r="F7">
-        <v>0.9386377118594993</v>
+        <v>0.9697377488022454</v>
       </c>
       <c r="G7">
-        <v>0.8987373448183291</v>
+        <v>0.8319949602540078</v>
       </c>
       <c r="H7">
-        <v>0.5820459148413448</v>
+        <v>0.8641862121696136</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -683,13 +683,13 @@
         <v>0</v>
       </c>
       <c r="K7">
-        <v>1.507022060097739</v>
+        <v>0.4414410940053131</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
       <c r="M7">
-        <v>0.6064622272694891</v>
+        <v>0.2249991261519781</v>
       </c>
       <c r="N7">
         <v>0</v>
@@ -703,25 +703,25 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.2572211643063298</v>
+        <v>0.1391075412599889</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.02197625570623707</v>
+        <v>0.02381444585115844</v>
       </c>
       <c r="E8">
-        <v>0.25104233827917</v>
+        <v>0.1391469574943613</v>
       </c>
       <c r="F8">
-        <v>1.063324161738763</v>
+        <v>0.9940716974609387</v>
       </c>
       <c r="G8">
-        <v>1.020917505416662</v>
+        <v>0.8570519012207853</v>
       </c>
       <c r="H8">
-        <v>0.6288676910955644</v>
+        <v>0.869052093908806</v>
       </c>
       <c r="I8">
         <v>0</v>
@@ -730,13 +730,13 @@
         <v>0</v>
       </c>
       <c r="K8">
-        <v>1.815093395329825</v>
+        <v>0.5326450310859627</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
       <c r="M8">
-        <v>0.74131886216216</v>
+        <v>0.2619222408201054</v>
       </c>
       <c r="N8">
         <v>0</v>
@@ -750,25 +750,25 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.34369108133059</v>
+        <v>0.1629274003651062</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.02083221560324233</v>
+        <v>0.02393669614612648</v>
       </c>
       <c r="E9">
-        <v>0.3370284665741039</v>
+        <v>0.159485942283716</v>
       </c>
       <c r="F9">
-        <v>1.327878781480649</v>
+        <v>1.047168177046728</v>
       </c>
       <c r="G9">
-        <v>1.281473762763113</v>
+        <v>0.911212834283333</v>
       </c>
       <c r="H9">
-        <v>0.7320754885780332</v>
+        <v>0.8824292110718943</v>
       </c>
       <c r="I9">
         <v>0</v>
@@ -777,13 +777,13 @@
         <v>0</v>
       </c>
       <c r="K9">
-        <v>2.427663683939471</v>
+        <v>0.7110140711624808</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
       <c r="M9">
-        <v>1.013512472526457</v>
+        <v>0.3350996347987021</v>
       </c>
       <c r="N9">
         <v>0</v>
@@ -797,25 +797,25 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.4088100141064785</v>
+        <v>0.1807771817683346</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.02001391434385624</v>
+        <v>0.02402454695577205</v>
       </c>
       <c r="E10">
-        <v>0.4043181975600234</v>
+        <v>0.1749592532295523</v>
       </c>
       <c r="F10">
-        <v>1.538060712229779</v>
+        <v>1.089509707326869</v>
       </c>
       <c r="G10">
-        <v>1.489538621428807</v>
+        <v>0.954131604163365</v>
       </c>
       <c r="H10">
-        <v>0.8166180264876743</v>
+        <v>0.8946174944608742</v>
       </c>
       <c r="I10">
         <v>0</v>
@@ -824,13 +824,13 @@
         <v>0</v>
       </c>
       <c r="K10">
-        <v>2.886562980984024</v>
+        <v>0.8417902401787387</v>
       </c>
       <c r="L10">
         <v>0</v>
       </c>
       <c r="M10">
-        <v>1.220525087354574</v>
+        <v>0.3893642377240241</v>
       </c>
       <c r="N10">
         <v>0</v>
@@ -844,25 +844,25 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>0.4388808919717917</v>
+        <v>0.1889730715689808</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>0.019648376697603</v>
+        <v>0.02406401083388943</v>
       </c>
       <c r="E11">
-        <v>0.4361108790667245</v>
+        <v>0.1821182961332042</v>
       </c>
       <c r="F11">
-        <v>1.638008712913432</v>
+        <v>1.109507169350934</v>
       </c>
       <c r="G11">
-        <v>1.588768553766272</v>
+        <v>0.9743494451220727</v>
       </c>
       <c r="H11">
-        <v>0.8574143582011402</v>
+        <v>0.900679666193696</v>
       </c>
       <c r="I11">
         <v>0</v>
@@ -871,13 +871,13 @@
         <v>0</v>
       </c>
       <c r="K11">
-        <v>3.098178955716833</v>
+        <v>0.9012305361694359</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
       <c r="M11">
-        <v>1.316810525738163</v>
+        <v>0.4141665169787956</v>
       </c>
       <c r="N11">
         <v>0</v>
@@ -891,25 +891,25 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>0.4503415366595362</v>
+        <v>0.1920874925238678</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>0.01951113985667874</v>
+        <v>0.02407887703297718</v>
       </c>
       <c r="E12">
-        <v>0.4483470927490103</v>
+        <v>0.1848468666574448</v>
       </c>
       <c r="F12">
-        <v>1.676563638720381</v>
+        <v>1.117186381708478</v>
       </c>
       <c r="G12">
-        <v>1.627093226316958</v>
+        <v>0.9821062257210258</v>
       </c>
       <c r="H12">
-        <v>0.8732405319724705</v>
+        <v>0.9030500501382051</v>
       </c>
       <c r="I12">
         <v>0</v>
@@ -918,13 +918,13 @@
         <v>0</v>
       </c>
       <c r="K12">
-        <v>3.178810568641012</v>
+        <v>0.9237319720850792</v>
       </c>
       <c r="L12">
         <v>0</v>
       </c>
       <c r="M12">
-        <v>1.353630109445533</v>
+        <v>0.4235757855534672</v>
       </c>
       <c r="N12">
         <v>0</v>
@@ -938,25 +938,25 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>0.4478698620435182</v>
+        <v>0.1914162668818165</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>0.01954063953540341</v>
+        <v>0.02407567888851858</v>
       </c>
       <c r="E13">
-        <v>0.4457025785366611</v>
+        <v>0.184258432483972</v>
       </c>
       <c r="F13">
-        <v>1.668227285877819</v>
+        <v>1.115527772416314</v>
       </c>
       <c r="G13">
-        <v>1.618804498533223</v>
+        <v>0.9804311694843477</v>
       </c>
       <c r="H13">
-        <v>0.8698145859366662</v>
+        <v>0.9025362147688156</v>
       </c>
       <c r="I13">
         <v>0</v>
@@ -965,13 +965,13 @@
         <v>0</v>
       </c>
       <c r="K13">
-        <v>3.161421521325565</v>
+        <v>0.9188862113695677</v>
       </c>
       <c r="L13">
         <v>0</v>
       </c>
       <c r="M13">
-        <v>1.345683482047349</v>
+        <v>0.4215485612686933</v>
       </c>
       <c r="N13">
         <v>0</v>
@@ -985,25 +985,25 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>0.4398222392375715</v>
+        <v>0.189229080693039</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>0.01963706096115558</v>
+        <v>0.02406523547979589</v>
       </c>
       <c r="E14">
-        <v>0.4371134451796408</v>
+        <v>0.1823424227852541</v>
       </c>
       <c r="F14">
-        <v>1.641165974857373</v>
+        <v>1.11013680184395</v>
       </c>
       <c r="G14">
-        <v>1.591905997915546</v>
+        <v>0.9749855760734079</v>
       </c>
       <c r="H14">
-        <v>0.8587085685003899</v>
+        <v>0.9008731786744306</v>
       </c>
       <c r="I14">
         <v>0</v>
@@ -1012,13 +1012,13 @@
         <v>0</v>
       </c>
       <c r="K14">
-        <v>3.104802075069188</v>
+        <v>0.9030818897270194</v>
       </c>
       <c r="L14">
         <v>0</v>
       </c>
       <c r="M14">
-        <v>1.319832179140491</v>
+        <v>0.4149402767332191</v>
       </c>
       <c r="N14">
         <v>0</v>
@@ -1032,25 +1032,25 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>0.4349026862720251</v>
+        <v>0.1878907713998501</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>0.01969628350233776</v>
+        <v>0.02405882827082451</v>
       </c>
       <c r="E15">
-        <v>0.4318788659337685</v>
+        <v>0.1811711125636251</v>
       </c>
       <c r="F15">
-        <v>1.624684813810433</v>
+        <v>1.10684858271884</v>
       </c>
       <c r="G15">
-        <v>1.575530193376551</v>
+        <v>0.9716631380486263</v>
       </c>
       <c r="H15">
-        <v>0.8519562770016194</v>
+        <v>0.8998642683387459</v>
       </c>
       <c r="I15">
         <v>0</v>
@@ -1059,13 +1059,13 @@
         <v>0</v>
       </c>
       <c r="K15">
-        <v>3.070188498502489</v>
+        <v>0.8934003323071806</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>1.30404589968802</v>
+        <v>0.4108947600679471</v>
       </c>
       <c r="N15">
         <v>0</v>
@@ -1079,25 +1079,25 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>0.4068545800210757</v>
+        <v>0.1802430801987924</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>0.02003795571948608</v>
+        <v>0.02402195731622569</v>
       </c>
       <c r="E16">
-        <v>0.4022664990054068</v>
+        <v>0.1744938379235137</v>
       </c>
       <c r="F16">
-        <v>1.531623037865756</v>
+        <v>1.088217702940554</v>
       </c>
       <c r="G16">
-        <v>1.483153336597582</v>
+        <v>0.952824363959337</v>
       </c>
       <c r="H16">
-        <v>0.8140023611989875</v>
+        <v>0.8942317622800147</v>
       </c>
       <c r="I16">
         <v>0</v>
@@ -1106,13 +1106,13 @@
         <v>0</v>
       </c>
       <c r="K16">
-        <v>2.872798066820053</v>
+        <v>0.8379046565183046</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>1.214279659978843</v>
+        <v>0.3877457356643248</v>
       </c>
       <c r="N16">
         <v>0</v>
@@ -1126,25 +1126,25 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>0.3897688892213154</v>
+        <v>0.175570843956109</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>0.02024941973577121</v>
+        <v>0.02399920573891379</v>
       </c>
       <c r="E17">
-        <v>0.384421326704981</v>
+        <v>0.1704285466559696</v>
       </c>
       <c r="F17">
-        <v>1.475699589881231</v>
+        <v>1.07697733059284</v>
       </c>
       <c r="G17">
-        <v>1.427717148683257</v>
+        <v>0.9414457759938273</v>
       </c>
       <c r="H17">
-        <v>0.7913456034245883</v>
+        <v>0.8909092232381681</v>
       </c>
       <c r="I17">
         <v>0</v>
@@ -1153,13 +1153,13 @@
         <v>0</v>
       </c>
       <c r="K17">
-        <v>2.75249623883937</v>
+        <v>0.8038468900396651</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>1.159789288528707</v>
+        <v>0.3735747852437044</v>
       </c>
       <c r="N17">
         <v>0</v>
@@ -1173,25 +1173,25 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>0.3799832279161137</v>
+        <v>0.1728906507695029</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>0.02037166402164026</v>
+        <v>0.02398607291740262</v>
       </c>
       <c r="E18">
-        <v>0.3742667432303506</v>
+        <v>0.1681015891638822</v>
       </c>
       <c r="F18">
-        <v>1.443936460917072</v>
+        <v>1.070581404216867</v>
       </c>
       <c r="G18">
-        <v>1.39625691039609</v>
+        <v>0.934966367555603</v>
       </c>
       <c r="H18">
-        <v>0.7785313275469434</v>
+        <v>0.8890468913166103</v>
       </c>
       <c r="I18">
         <v>0</v>
@@ -1200,13 +1200,13 @@
         <v>0</v>
       </c>
       <c r="K18">
-        <v>2.683565365751548</v>
+        <v>0.7842530187005821</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>1.128643286974146</v>
+        <v>0.3654350241597228</v>
       </c>
       <c r="N18">
         <v>0</v>
@@ -1220,25 +1220,25 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>0.3766768493431982</v>
+        <v>0.171984415207092</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>0.02041315374032315</v>
+        <v>0.02398161853560765</v>
       </c>
       <c r="E19">
-        <v>0.3708466074241912</v>
+        <v>0.167315650841708</v>
       </c>
       <c r="F19">
-        <v>1.433248752643195</v>
+        <v>1.068427722143568</v>
       </c>
       <c r="G19">
-        <v>1.385675459298369</v>
+        <v>0.9327837299691737</v>
       </c>
       <c r="H19">
-        <v>0.7742287654277789</v>
+        <v>0.8884246927191271</v>
       </c>
       <c r="I19">
         <v>0</v>
@@ -1247,13 +1247,13 @@
         <v>0</v>
       </c>
       <c r="K19">
-        <v>2.660269357150469</v>
+        <v>0.7776180577006926</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>1.118129791963227</v>
+        <v>0.3626809186016402</v>
       </c>
       <c r="N19">
         <v>0</v>
@@ -1267,25 +1267,25 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>0.3915833242609779</v>
+        <v>0.1760674718725141</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>0.02022684387459783</v>
+        <v>0.02400163256238841</v>
       </c>
       <c r="E20">
-        <v>0.3863094584499294</v>
+        <v>0.1708601330305797</v>
       </c>
       <c r="F20">
-        <v>1.481610497110864</v>
+        <v>1.078166715998051</v>
       </c>
       <c r="G20">
-        <v>1.433573799861932</v>
+        <v>0.9426502856854881</v>
       </c>
       <c r="H20">
-        <v>0.7937346796349516</v>
+        <v>0.8912578700350764</v>
       </c>
       <c r="I20">
         <v>0</v>
@@ -1294,13 +1294,13 @@
         <v>0</v>
       </c>
       <c r="K20">
-        <v>2.765274704441396</v>
+        <v>0.8074728889931464</v>
       </c>
       <c r="L20">
         <v>0</v>
       </c>
       <c r="M20">
-        <v>1.165569282285631</v>
+        <v>0.3750821666504791</v>
       </c>
       <c r="N20">
         <v>0</v>
@@ -1314,25 +1314,25 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>0.4421839514382384</v>
+        <v>0.1898712175956661</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>0.01960870549987703</v>
+        <v>0.02406830512262914</v>
       </c>
       <c r="E21">
-        <v>0.4396307038124405</v>
+        <v>0.1829047211727683</v>
       </c>
       <c r="F21">
-        <v>1.6490946462728</v>
+        <v>1.111717361221409</v>
       </c>
       <c r="G21">
-        <v>1.599785661957213</v>
+        <v>0.9765823377291554</v>
       </c>
       <c r="H21">
-        <v>0.8619600778889662</v>
+        <v>0.9013596207657599</v>
       </c>
       <c r="I21">
         <v>0</v>
@@ -1341,13 +1341,13 @@
         <v>0</v>
       </c>
       <c r="K21">
-        <v>3.121418351243278</v>
+        <v>0.9077242010125417</v>
       </c>
       <c r="L21">
         <v>0</v>
       </c>
       <c r="M21">
-        <v>1.327415143114251</v>
+        <v>0.4168808208801238</v>
       </c>
       <c r="N21">
         <v>0</v>
@@ -1361,25 +1361,25 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>0.4756873453154213</v>
+        <v>0.1989557556515393</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>0.01921176094379007</v>
+        <v>0.02411142280149292</v>
       </c>
       <c r="E22">
-        <v>0.4756424940140604</v>
+        <v>0.1908792700301589</v>
       </c>
       <c r="F22">
-        <v>1.76272036996906</v>
+        <v>1.134266391538389</v>
       </c>
       <c r="G22">
-        <v>1.712826309155588</v>
+        <v>0.9993464261690974</v>
       </c>
       <c r="H22">
-        <v>0.908772199248574</v>
+        <v>0.9083976774460325</v>
       </c>
       <c r="I22">
         <v>0</v>
@@ -1388,13 +1388,13 @@
         <v>0</v>
       </c>
       <c r="K22">
-        <v>3.35712416832007</v>
+        <v>0.973201578604403</v>
       </c>
       <c r="L22">
         <v>0</v>
       </c>
       <c r="M22">
-        <v>1.435309546836763</v>
+        <v>0.4442989858766992</v>
       </c>
       <c r="N22">
         <v>0</v>
@@ -1408,25 +1408,25 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>0.4577631322438833</v>
+        <v>0.1941014371629421</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>0.01942288652273305</v>
+        <v>0.02408845377242841</v>
       </c>
       <c r="E23">
-        <v>0.4563061049328354</v>
+        <v>0.1866135991754589</v>
       </c>
       <c r="F23">
-        <v>1.701665093348083</v>
+        <v>1.122174408596095</v>
       </c>
       <c r="G23">
-        <v>1.652058408036766</v>
+        <v>0.9871427319600627</v>
       </c>
       <c r="H23">
-        <v>0.8835694118270112</v>
+        <v>0.9046013318221355</v>
       </c>
       <c r="I23">
         <v>0</v>
@@ -1435,13 +1435,13 @@
         <v>0</v>
       </c>
       <c r="K23">
-        <v>3.231023060084397</v>
+        <v>0.9382589886560311</v>
       </c>
       <c r="L23">
         <v>0</v>
       </c>
       <c r="M23">
-        <v>1.377510779113123</v>
+        <v>0.4296560967639778</v>
       </c>
       <c r="N23">
         <v>0</v>
@@ -1455,25 +1455,25 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>0.3907629032014484</v>
+        <v>0.1758429278896045</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>0.02023704834791573</v>
+        <v>0.02400053555778214</v>
       </c>
       <c r="E24">
-        <v>0.3854555095240997</v>
+        <v>0.1706649809855207</v>
       </c>
       <c r="F24">
-        <v>1.478936973590464</v>
+        <v>1.077628788343731</v>
       </c>
       <c r="G24">
-        <v>1.43092473509094</v>
+        <v>0.9421055328810723</v>
       </c>
       <c r="H24">
-        <v>0.7926539228988077</v>
+        <v>0.8911000978117158</v>
       </c>
       <c r="I24">
         <v>0</v>
@@ -1482,13 +1482,13 @@
         <v>0</v>
       </c>
       <c r="K24">
-        <v>2.759496843106746</v>
+        <v>0.8058336172598501</v>
       </c>
       <c r="L24">
         <v>0</v>
       </c>
       <c r="M24">
-        <v>1.162955586617443</v>
+        <v>0.3744006567916358</v>
       </c>
       <c r="N24">
         <v>0</v>
@@ -1502,25 +1502,25 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.3200515975615588</v>
+        <v>0.1564220090277786</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>0.02113832618661249</v>
+        <v>0.02390394288119246</v>
       </c>
       <c r="E25">
-        <v>0.3131333155193019</v>
+        <v>0.1538921311309736</v>
       </c>
       <c r="F25">
-        <v>1.253813040839873</v>
+        <v>1.032222966839086</v>
       </c>
       <c r="G25">
-        <v>1.2083662612296</v>
+        <v>0.8960163930459544</v>
       </c>
       <c r="H25">
-        <v>0.7027628337777969</v>
+        <v>0.8783974892914728</v>
       </c>
       <c r="I25">
         <v>0</v>
@@ -1529,13 +1529,13 @@
         <v>0</v>
       </c>
       <c r="K25">
-        <v>2.260683611183794</v>
+        <v>0.6628098569714496</v>
       </c>
       <c r="L25">
         <v>0</v>
       </c>
       <c r="M25">
-        <v>0.9388233105616592</v>
+        <v>0.3152174590851331</v>
       </c>
       <c r="N25">
         <v>0</v>

--- a/Code/Results/Cases/Case_1_235/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_1_235/res_line/pl_mw.xlsx
@@ -421,25 +421,25 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.1423581687604241</v>
+        <v>0.2690186239661756</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0.02383153491422441</v>
+        <v>0.0218161217520656</v>
       </c>
       <c r="E2">
-        <v>0.1418975379009098</v>
+        <v>0.2625401458659056</v>
       </c>
       <c r="F2">
-        <v>1.001026938071632</v>
+        <v>1.09834251590884</v>
       </c>
       <c r="G2">
-        <v>0.8641787305874686</v>
+        <v>1.055310050511011</v>
       </c>
       <c r="H2">
-        <v>0.8706292266536622</v>
+        <v>0.6422648453154665</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -448,13 +448,13 @@
         <v>0</v>
       </c>
       <c r="K2">
-        <v>0.5573233552341037</v>
+        <v>1.899011931365521</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
       <c r="M2">
-        <v>0.2719776128062676</v>
+        <v>0.778304046299084</v>
       </c>
       <c r="N2">
         <v>0</v>
@@ -468,25 +468,25 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.1329743783578579</v>
+        <v>0.2349386387172672</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>0.02378178700569933</v>
+        <v>0.0222824803674353</v>
       </c>
       <c r="E3">
-        <v>0.1339829978956288</v>
+        <v>0.2295359043152061</v>
       </c>
       <c r="F3">
-        <v>0.9812616942354708</v>
+        <v>0.9982101627027191</v>
       </c>
       <c r="G3">
-        <v>0.8438887487805147</v>
+        <v>0.957055589364245</v>
       </c>
       <c r="H3">
-        <v>0.866345540138056</v>
+        <v>0.6042289407651538</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -495,13 +495,13 @@
         <v>0</v>
       </c>
       <c r="K3">
-        <v>0.4857134367956064</v>
+        <v>1.656175315102814</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="M3">
-        <v>0.2428724109972933</v>
+        <v>0.6715668518368361</v>
       </c>
       <c r="N3">
         <v>0</v>
@@ -515,25 +515,25 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.1272856977271033</v>
+        <v>0.214221545773114</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>0.02375095444888053</v>
+        <v>0.02257189707404983</v>
       </c>
       <c r="E4">
-        <v>0.1292268806890888</v>
+        <v>0.2097945892213033</v>
       </c>
       <c r="F4">
-        <v>0.9697991521135236</v>
+        <v>0.9389584463616814</v>
       </c>
       <c r="G4">
-        <v>0.8320584939190212</v>
+        <v>0.8990510299152135</v>
       </c>
       <c r="H4">
-        <v>0.8641968803054851</v>
+        <v>0.5821643098553153</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -542,13 +542,13 @@
         <v>0</v>
       </c>
       <c r="K4">
-        <v>0.44168322027042</v>
+        <v>1.507835883809946</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
       <c r="M4">
-        <v>0.2250965958248798</v>
+        <v>0.6068164621609284</v>
       </c>
       <c r="N4">
         <v>0</v>
@@ -562,25 +562,25 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.1249859700120908</v>
+        <v>0.2058259193210574</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>0.02373832529260866</v>
+        <v>0.02269056949883108</v>
       </c>
       <c r="E5">
-        <v>0.1273144455062223</v>
+        <v>0.2018665980795902</v>
       </c>
       <c r="F5">
-        <v>0.9652967194621311</v>
+        <v>0.9153257425112002</v>
       </c>
       <c r="G5">
-        <v>0.8273945898377093</v>
+        <v>0.8759467843656097</v>
       </c>
       <c r="H5">
-        <v>0.8634420887254919</v>
+        <v>0.5734734843087637</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -589,13 +589,13 @@
         <v>0</v>
       </c>
       <c r="K5">
-        <v>0.4237251842724845</v>
+        <v>1.447530359225055</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
       <c r="M5">
-        <v>0.2178763495970912</v>
+        <v>0.5805977629187495</v>
       </c>
       <c r="N5">
         <v>0</v>
@@ -609,25 +609,25 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.1246052195724161</v>
+        <v>0.2044344990897144</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.02373622455530189</v>
+        <v>0.02271031839589277</v>
       </c>
       <c r="E6">
-        <v>0.126998432139267</v>
+        <v>0.2005567992003279</v>
       </c>
       <c r="F6">
-        <v>0.964559259779179</v>
+        <v>0.9114311865391329</v>
       </c>
       <c r="G6">
-        <v>0.8266296105515352</v>
+        <v>0.8721411049675254</v>
       </c>
       <c r="H6">
-        <v>0.8633240442282215</v>
+        <v>0.572047881598337</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -636,13 +636,13 @@
         <v>0</v>
       </c>
       <c r="K6">
-        <v>0.4207423408903423</v>
+        <v>1.437524037419507</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
       <c r="M6">
-        <v>0.2166788459169453</v>
+        <v>0.5762534503376102</v>
       </c>
       <c r="N6">
         <v>0</v>
@@ -656,25 +656,25 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.1272546079360524</v>
+        <v>0.2141081372379432</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.02375078437946243</v>
+        <v>0.02257349460470515</v>
       </c>
       <c r="E7">
-        <v>0.1292009851570626</v>
+        <v>0.2096872156677847</v>
       </c>
       <c r="F7">
-        <v>0.9697377488022454</v>
+        <v>0.9386377118595277</v>
       </c>
       <c r="G7">
-        <v>0.8319949602540078</v>
+        <v>0.8987373448183291</v>
       </c>
       <c r="H7">
-        <v>0.8641862121696136</v>
+        <v>0.5820459148413306</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -683,13 +683,13 @@
         <v>0</v>
       </c>
       <c r="K7">
-        <v>0.4414410940053131</v>
+        <v>1.507022060097682</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
       <c r="M7">
-        <v>0.2249991261519781</v>
+        <v>0.6064622272694962</v>
       </c>
       <c r="N7">
         <v>0</v>
@@ -703,25 +703,25 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.1391075412599889</v>
+        <v>0.2572211643064577</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.02381444585115844</v>
+        <v>0.02197625570623885</v>
       </c>
       <c r="E8">
-        <v>0.1391469574943613</v>
+        <v>0.2510423382791629</v>
       </c>
       <c r="F8">
-        <v>0.9940716974609387</v>
+        <v>1.063324161738777</v>
       </c>
       <c r="G8">
-        <v>0.8570519012207853</v>
+        <v>1.020917505416662</v>
       </c>
       <c r="H8">
-        <v>0.869052093908806</v>
+        <v>0.6288676910954507</v>
       </c>
       <c r="I8">
         <v>0</v>
@@ -730,13 +730,13 @@
         <v>0</v>
       </c>
       <c r="K8">
-        <v>0.5326450310859627</v>
+        <v>1.815093395329882</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
       <c r="M8">
-        <v>0.2619222408201054</v>
+        <v>0.7413188621621387</v>
       </c>
       <c r="N8">
         <v>0</v>
@@ -750,25 +750,25 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.1629274003651062</v>
+        <v>0.34369108133059</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.02393669614612648</v>
+        <v>0.02083221560320858</v>
       </c>
       <c r="E9">
-        <v>0.159485942283716</v>
+        <v>0.3370284665741252</v>
       </c>
       <c r="F9">
-        <v>1.047168177046728</v>
+        <v>1.327878781480649</v>
       </c>
       <c r="G9">
-        <v>0.911212834283333</v>
+        <v>1.281473762763198</v>
       </c>
       <c r="H9">
-        <v>0.8824292110718943</v>
+        <v>0.7320754885780332</v>
       </c>
       <c r="I9">
         <v>0</v>
@@ -777,13 +777,13 @@
         <v>0</v>
       </c>
       <c r="K9">
-        <v>0.7110140711624808</v>
+        <v>2.427663683939528</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
       <c r="M9">
-        <v>0.3350996347987021</v>
+        <v>1.013512472526457</v>
       </c>
       <c r="N9">
         <v>0</v>
@@ -797,25 +797,25 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.1807771817683346</v>
+        <v>0.4088100141064785</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.02402454695577205</v>
+        <v>0.02001391434385447</v>
       </c>
       <c r="E10">
-        <v>0.1749592532295523</v>
+        <v>0.4043181975600376</v>
       </c>
       <c r="F10">
-        <v>1.089509707326869</v>
+        <v>1.538060712229807</v>
       </c>
       <c r="G10">
-        <v>0.954131604163365</v>
+        <v>1.489538621428721</v>
       </c>
       <c r="H10">
-        <v>0.8946174944608742</v>
+        <v>0.8166180264876459</v>
       </c>
       <c r="I10">
         <v>0</v>
@@ -824,13 +824,13 @@
         <v>0</v>
       </c>
       <c r="K10">
-        <v>0.8417902401787387</v>
+        <v>2.886562980983996</v>
       </c>
       <c r="L10">
         <v>0</v>
       </c>
       <c r="M10">
-        <v>0.3893642377240241</v>
+        <v>1.220525087354574</v>
       </c>
       <c r="N10">
         <v>0</v>
@@ -844,25 +844,25 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>0.1889730715689808</v>
+        <v>0.4388808919717349</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>0.02406401083388943</v>
+        <v>0.01964837669759945</v>
       </c>
       <c r="E11">
-        <v>0.1821182961332042</v>
+        <v>0.4361108790667529</v>
       </c>
       <c r="F11">
-        <v>1.109507169350934</v>
+        <v>1.638008712913447</v>
       </c>
       <c r="G11">
-        <v>0.9743494451220727</v>
+        <v>1.588768553766272</v>
       </c>
       <c r="H11">
-        <v>0.900679666193696</v>
+        <v>0.8574143582012539</v>
       </c>
       <c r="I11">
         <v>0</v>
@@ -871,13 +871,13 @@
         <v>0</v>
       </c>
       <c r="K11">
-        <v>0.9012305361694359</v>
+        <v>3.098178955716804</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
       <c r="M11">
-        <v>0.4141665169787956</v>
+        <v>1.316810525738191</v>
       </c>
       <c r="N11">
         <v>0</v>
@@ -891,25 +891,25 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>0.1920874925238678</v>
+        <v>0.4503415366595078</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>0.02407887703297718</v>
+        <v>0.01951113985667519</v>
       </c>
       <c r="E12">
-        <v>0.1848468666574448</v>
+        <v>0.4483470927490316</v>
       </c>
       <c r="F12">
-        <v>1.117186381708478</v>
+        <v>1.676563638720367</v>
       </c>
       <c r="G12">
-        <v>0.9821062257210258</v>
+        <v>1.627093226317015</v>
       </c>
       <c r="H12">
-        <v>0.9030500501382051</v>
+        <v>0.873240531972499</v>
       </c>
       <c r="I12">
         <v>0</v>
@@ -918,13 +918,13 @@
         <v>0</v>
       </c>
       <c r="K12">
-        <v>0.9237319720850792</v>
+        <v>3.178810568640984</v>
       </c>
       <c r="L12">
         <v>0</v>
       </c>
       <c r="M12">
-        <v>0.4235757855534672</v>
+        <v>1.353630109445547</v>
       </c>
       <c r="N12">
         <v>0</v>
@@ -938,25 +938,25 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>0.1914162668818165</v>
+        <v>0.4478698620436461</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>0.02407567888851858</v>
+        <v>0.01954063953531815</v>
       </c>
       <c r="E13">
-        <v>0.184258432483972</v>
+        <v>0.4457025785366682</v>
       </c>
       <c r="F13">
-        <v>1.115527772416314</v>
+        <v>1.668227285877805</v>
       </c>
       <c r="G13">
-        <v>0.9804311694843477</v>
+        <v>1.618804498533194</v>
       </c>
       <c r="H13">
-        <v>0.9025362147688156</v>
+        <v>0.8698145859365525</v>
       </c>
       <c r="I13">
         <v>0</v>
@@ -965,13 +965,13 @@
         <v>0</v>
       </c>
       <c r="K13">
-        <v>0.9188862113695677</v>
+        <v>3.161421521325508</v>
       </c>
       <c r="L13">
         <v>0</v>
       </c>
       <c r="M13">
-        <v>0.4215485612686933</v>
+        <v>1.345683482047363</v>
       </c>
       <c r="N13">
         <v>0</v>
@@ -985,25 +985,25 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>0.189229080693039</v>
+        <v>0.4398222392374294</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>0.02406523547979589</v>
+        <v>0.01963706096102769</v>
       </c>
       <c r="E14">
-        <v>0.1823424227852541</v>
+        <v>0.4371134451795839</v>
       </c>
       <c r="F14">
-        <v>1.11013680184395</v>
+        <v>1.641165974857429</v>
       </c>
       <c r="G14">
-        <v>0.9749855760734079</v>
+        <v>1.591905997915518</v>
       </c>
       <c r="H14">
-        <v>0.9008731786744306</v>
+        <v>0.8587085685003899</v>
       </c>
       <c r="I14">
         <v>0</v>
@@ -1012,13 +1012,13 @@
         <v>0</v>
       </c>
       <c r="K14">
-        <v>0.9030818897270194</v>
+        <v>3.104802075069216</v>
       </c>
       <c r="L14">
         <v>0</v>
       </c>
       <c r="M14">
-        <v>0.4149402767332191</v>
+        <v>1.319832179140505</v>
       </c>
       <c r="N14">
         <v>0</v>
@@ -1032,25 +1032,25 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>0.1878907713998501</v>
+        <v>0.4349026862720109</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>0.02405882827082451</v>
+        <v>0.01969628350244079</v>
       </c>
       <c r="E15">
-        <v>0.1811711125636251</v>
+        <v>0.431878865933804</v>
       </c>
       <c r="F15">
-        <v>1.10684858271884</v>
+        <v>1.624684813810447</v>
       </c>
       <c r="G15">
-        <v>0.9716631380486263</v>
+        <v>1.575530193376466</v>
       </c>
       <c r="H15">
-        <v>0.8998642683387459</v>
+        <v>0.8519562770016194</v>
       </c>
       <c r="I15">
         <v>0</v>
@@ -1059,13 +1059,13 @@
         <v>0</v>
       </c>
       <c r="K15">
-        <v>0.8934003323071806</v>
+        <v>3.070188498502404</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0.4108947600679471</v>
+        <v>1.304045899687992</v>
       </c>
       <c r="N15">
         <v>0</v>
@@ -1079,25 +1079,25 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>0.1802430801987924</v>
+        <v>0.4068545800209478</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>0.02402195731622569</v>
+        <v>0.02003795571956601</v>
       </c>
       <c r="E16">
-        <v>0.1744938379235137</v>
+        <v>0.4022664990054778</v>
       </c>
       <c r="F16">
-        <v>1.088217702940554</v>
+        <v>1.531623037865771</v>
       </c>
       <c r="G16">
-        <v>0.952824363959337</v>
+        <v>1.483153336597582</v>
       </c>
       <c r="H16">
-        <v>0.8942317622800147</v>
+        <v>0.8140023611989591</v>
       </c>
       <c r="I16">
         <v>0</v>
@@ -1106,13 +1106,13 @@
         <v>0</v>
       </c>
       <c r="K16">
-        <v>0.8379046565183046</v>
+        <v>2.872798066819996</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0.3877457356643248</v>
+        <v>1.214279659978885</v>
       </c>
       <c r="N16">
         <v>0</v>
@@ -1126,25 +1126,25 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>0.175570843956109</v>
+        <v>0.3897688892212017</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>0.02399920573891379</v>
+        <v>0.02024941973566108</v>
       </c>
       <c r="E17">
-        <v>0.1704285466559696</v>
+        <v>0.3844213267049881</v>
       </c>
       <c r="F17">
-        <v>1.07697733059284</v>
+        <v>1.475699589881231</v>
       </c>
       <c r="G17">
-        <v>0.9414457759938273</v>
+        <v>1.427717148683314</v>
       </c>
       <c r="H17">
-        <v>0.8909092232381681</v>
+        <v>0.7913456034245883</v>
       </c>
       <c r="I17">
         <v>0</v>
@@ -1153,13 +1153,13 @@
         <v>0</v>
       </c>
       <c r="K17">
-        <v>0.8038468900396651</v>
+        <v>2.752496238839427</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0.3735747852437044</v>
+        <v>1.159789288528692</v>
       </c>
       <c r="N17">
         <v>0</v>
@@ -1173,25 +1173,25 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>0.1728906507695029</v>
+        <v>0.3799832279162842</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>0.02398607291740262</v>
+        <v>0.02037166402173263</v>
       </c>
       <c r="E18">
-        <v>0.1681015891638822</v>
+        <v>0.3742667432303435</v>
       </c>
       <c r="F18">
-        <v>1.070581404216867</v>
+        <v>1.443936460917072</v>
       </c>
       <c r="G18">
-        <v>0.934966367555603</v>
+        <v>1.39625691039609</v>
       </c>
       <c r="H18">
-        <v>0.8890468913166103</v>
+        <v>0.7785313275469434</v>
       </c>
       <c r="I18">
         <v>0</v>
@@ -1200,13 +1200,13 @@
         <v>0</v>
       </c>
       <c r="K18">
-        <v>0.7842530187005821</v>
+        <v>2.683565365751605</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0.3654350241597228</v>
+        <v>1.128643286974146</v>
       </c>
       <c r="N18">
         <v>0</v>
@@ -1220,25 +1220,25 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>0.171984415207092</v>
+        <v>0.3766768493433119</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>0.02398161853560765</v>
+        <v>0.0204131537403569</v>
       </c>
       <c r="E19">
-        <v>0.167315650841708</v>
+        <v>0.3708466074241912</v>
       </c>
       <c r="F19">
-        <v>1.068427722143568</v>
+        <v>1.433248752643195</v>
       </c>
       <c r="G19">
-        <v>0.9327837299691737</v>
+        <v>1.385675459298312</v>
       </c>
       <c r="H19">
-        <v>0.8884246927191271</v>
+        <v>0.7742287654277789</v>
       </c>
       <c r="I19">
         <v>0</v>
@@ -1247,13 +1247,13 @@
         <v>0</v>
       </c>
       <c r="K19">
-        <v>0.7776180577006926</v>
+        <v>2.660269357150582</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0.3626809186016402</v>
+        <v>1.11812979196322</v>
       </c>
       <c r="N19">
         <v>0</v>
@@ -1267,25 +1267,25 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>0.1760674718725141</v>
+        <v>0.3915833242610489</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>0.02400163256238841</v>
+        <v>0.02022684387459783</v>
       </c>
       <c r="E20">
-        <v>0.1708601330305797</v>
+        <v>0.3863094584499365</v>
       </c>
       <c r="F20">
-        <v>1.078166715998051</v>
+        <v>1.481610497110879</v>
       </c>
       <c r="G20">
-        <v>0.9426502856854881</v>
+        <v>1.433573799861904</v>
       </c>
       <c r="H20">
-        <v>0.8912578700350764</v>
+        <v>0.79373467963498</v>
       </c>
       <c r="I20">
         <v>0</v>
@@ -1294,13 +1294,13 @@
         <v>0</v>
       </c>
       <c r="K20">
-        <v>0.8074728889931464</v>
+        <v>2.765274704441481</v>
       </c>
       <c r="L20">
         <v>0</v>
       </c>
       <c r="M20">
-        <v>0.3750821666504791</v>
+        <v>1.165569282285624</v>
       </c>
       <c r="N20">
         <v>0</v>
@@ -1314,25 +1314,25 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>0.1898712175956661</v>
+        <v>0.4421839514382526</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>0.02406830512262914</v>
+        <v>0.01960870549979532</v>
       </c>
       <c r="E21">
-        <v>0.1829047211727683</v>
+        <v>0.4396307038124974</v>
       </c>
       <c r="F21">
-        <v>1.111717361221409</v>
+        <v>1.6490946462728</v>
       </c>
       <c r="G21">
-        <v>0.9765823377291554</v>
+        <v>1.599785661957213</v>
       </c>
       <c r="H21">
-        <v>0.9013596207657599</v>
+        <v>0.8619600778890799</v>
       </c>
       <c r="I21">
         <v>0</v>
@@ -1341,13 +1341,13 @@
         <v>0</v>
       </c>
       <c r="K21">
-        <v>0.9077242010125417</v>
+        <v>3.121418351243136</v>
       </c>
       <c r="L21">
         <v>0</v>
       </c>
       <c r="M21">
-        <v>0.4168808208801238</v>
+        <v>1.327415143114266</v>
       </c>
       <c r="N21">
         <v>0</v>
@@ -1361,25 +1361,25 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>0.1989557556515393</v>
+        <v>0.4756873453155208</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>0.02411142280149292</v>
+        <v>0.01921176094378296</v>
       </c>
       <c r="E22">
-        <v>0.1908792700301589</v>
+        <v>0.4756424940140391</v>
       </c>
       <c r="F22">
-        <v>1.134266391538389</v>
+        <v>1.762720369969031</v>
       </c>
       <c r="G22">
-        <v>0.9993464261690974</v>
+        <v>1.71282630915556</v>
       </c>
       <c r="H22">
-        <v>0.9083976774460325</v>
+        <v>0.9087721992484319</v>
       </c>
       <c r="I22">
         <v>0</v>
@@ -1388,13 +1388,13 @@
         <v>0</v>
       </c>
       <c r="K22">
-        <v>0.973201578604403</v>
+        <v>3.357124168320155</v>
       </c>
       <c r="L22">
         <v>0</v>
       </c>
       <c r="M22">
-        <v>0.4442989858766992</v>
+        <v>1.435309546836748</v>
       </c>
       <c r="N22">
         <v>0</v>
@@ -1408,25 +1408,25 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>0.1941014371629421</v>
+        <v>0.4577631322437412</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>0.02408845377242841</v>
+        <v>0.01942288652284674</v>
       </c>
       <c r="E23">
-        <v>0.1866135991754589</v>
+        <v>0.4563061049328567</v>
       </c>
       <c r="F23">
-        <v>1.122174408596095</v>
+        <v>1.701665093348097</v>
       </c>
       <c r="G23">
-        <v>0.9871427319600627</v>
+        <v>1.652058408036822</v>
       </c>
       <c r="H23">
-        <v>0.9046013318221355</v>
+        <v>0.8835694118271533</v>
       </c>
       <c r="I23">
         <v>0</v>
@@ -1435,13 +1435,13 @@
         <v>0</v>
       </c>
       <c r="K23">
-        <v>0.9382589886560311</v>
+        <v>3.231023060084368</v>
       </c>
       <c r="L23">
         <v>0</v>
       </c>
       <c r="M23">
-        <v>0.4296560967639778</v>
+        <v>1.377510779113123</v>
       </c>
       <c r="N23">
         <v>0</v>
@@ -1455,25 +1455,25 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>0.1758429278896045</v>
+        <v>0.3907629032014484</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>0.02400053555778214</v>
+        <v>0.02023704834802587</v>
       </c>
       <c r="E24">
-        <v>0.1706649809855207</v>
+        <v>0.3854555095241068</v>
       </c>
       <c r="F24">
-        <v>1.077628788343731</v>
+        <v>1.478936973590478</v>
       </c>
       <c r="G24">
-        <v>0.9421055328810723</v>
+        <v>1.430924735090969</v>
       </c>
       <c r="H24">
-        <v>0.8911000978117158</v>
+        <v>0.792653922898694</v>
       </c>
       <c r="I24">
         <v>0</v>
@@ -1482,13 +1482,13 @@
         <v>0</v>
       </c>
       <c r="K24">
-        <v>0.8058336172598501</v>
+        <v>2.759496843106774</v>
       </c>
       <c r="L24">
         <v>0</v>
       </c>
       <c r="M24">
-        <v>0.3744006567916358</v>
+        <v>1.162955586617457</v>
       </c>
       <c r="N24">
         <v>0</v>
@@ -1502,25 +1502,25 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.1564220090277786</v>
+        <v>0.3200515975613172</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>0.02390394288119246</v>
+        <v>0.0211383261866942</v>
       </c>
       <c r="E25">
-        <v>0.1538921311309736</v>
+        <v>0.3131333155193019</v>
       </c>
       <c r="F25">
-        <v>1.032222966839086</v>
+        <v>1.253813040839873</v>
       </c>
       <c r="G25">
-        <v>0.8960163930459544</v>
+        <v>1.208366261229628</v>
       </c>
       <c r="H25">
-        <v>0.8783974892914728</v>
+        <v>0.7027628337779106</v>
       </c>
       <c r="I25">
         <v>0</v>
@@ -1529,13 +1529,13 @@
         <v>0</v>
       </c>
       <c r="K25">
-        <v>0.6628098569714496</v>
+        <v>2.260683611183907</v>
       </c>
       <c r="L25">
         <v>0</v>
       </c>
       <c r="M25">
-        <v>0.3152174590851331</v>
+        <v>0.9388233105616592</v>
       </c>
       <c r="N25">
         <v>0</v>
